--- a/SOC_Photon/dataReduction/20220129_063101.xlsx
+++ b/SOC_Photon/dataReduction/20220129_063101.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="406">
   <si>
     <t>Hs</t>
   </si>
@@ -1156,15 +1156,9 @@
     <t>dvoc_dt</t>
   </si>
   <si>
-    <t>voc_soc_r</t>
-  </si>
-  <si>
     <t>voc_soc_0</t>
   </si>
   <si>
-    <t>voc_ekf_r</t>
-  </si>
-  <si>
     <t>voc_ekf_0</t>
   </si>
   <si>
@@ -1193,6 +1187,57 @@
   </si>
   <si>
     <t xml:space="preserve">  2022-01-29T10:03:12</t>
+  </si>
+  <si>
+    <t>voc_ekf_25</t>
+  </si>
+  <si>
+    <t>voc_ekf_40</t>
+  </si>
+  <si>
+    <t>BATT_DVOC_DT</t>
+  </si>
+  <si>
+    <t>voc_ekf_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2022-01-29T14:29:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2022-01-30T06:51:09</t>
+  </si>
+  <si>
+    <t>Rbatt</t>
+  </si>
+  <si>
+    <t>Vb-voc</t>
+  </si>
+  <si>
+    <t>BMS is not restricting voltage.  It suddenly shuts off below 10 v</t>
+  </si>
+  <si>
+    <t>also tb &lt; 5 C</t>
+  </si>
+  <si>
+    <t>on engine start with DC-DC abs(v/i) is large when BMS has shut off battery</t>
+  </si>
+  <si>
+    <t>voc_soc_25_old</t>
+  </si>
+  <si>
+    <t>voc_0</t>
+  </si>
+  <si>
+    <t>voc_10</t>
+  </si>
+  <si>
+    <t>voc_40</t>
+  </si>
+  <si>
+    <t>voc_20</t>
+  </si>
+  <si>
+    <t>x_soc</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1518,6 +1563,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1679,7 +1730,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1687,6 +1738,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2460,8 +2522,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="559897512"/>
-        <c:axId val="559901040"/>
+        <c:axId val="621302624"/>
+        <c:axId val="621299488"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2802,11 +2864,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="559900648"/>
-        <c:axId val="559901432"/>
+        <c:axId val="621301840"/>
+        <c:axId val="621302232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="559897512"/>
+        <c:axId val="621302624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,12 +2925,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559901040"/>
+        <c:crossAx val="621299488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559901040"/>
+        <c:axId val="621299488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,12 +2987,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559897512"/>
+        <c:crossAx val="621302624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559901432"/>
+        <c:axId val="621302232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2973,12 +3035,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559900648"/>
+        <c:crossAx val="621301840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559900648"/>
+        <c:axId val="621301840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2988,7 +3050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="559901432"/>
+        <c:crossAx val="621302232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4152,8 +4214,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="559900256"/>
-        <c:axId val="559898296"/>
+        <c:axId val="621343656"/>
+        <c:axId val="621343264"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5108,11 +5170,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="559894768"/>
-        <c:axId val="559901824"/>
+        <c:axId val="621342088"/>
+        <c:axId val="621342872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="559900256"/>
+        <c:axId val="621343656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5169,12 +5231,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559898296"/>
+        <c:crossAx val="621343264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559898296"/>
+        <c:axId val="621343264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.5"/>
@@ -5233,12 +5295,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559900256"/>
+        <c:crossAx val="621343656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559901824"/>
+        <c:axId val="621342872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5281,12 +5343,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559894768"/>
+        <c:crossAx val="621342088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559894768"/>
+        <c:axId val="621342088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5296,7 +5358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="559901824"/>
+        <c:crossAx val="621342872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5765,7 +5827,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>voc_soc_r</c:v>
+                  <c:v>voc_soc_25_old</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6089,7 +6151,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$1</c:f>
+              <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6262,7 +6324,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$48</c:f>
+              <c:f>Sheet1!$O$2:$O$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -6420,11 +6482,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="559875560"/>
-        <c:axId val="559878304"/>
+        <c:axId val="621351472"/>
+        <c:axId val="621350688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="559875560"/>
+        <c:axId val="621351472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6481,12 +6543,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559878304"/>
+        <c:crossAx val="621350688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559878304"/>
+        <c:axId val="621350688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6543,7 +6605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559875560"/>
+        <c:crossAx val="621351472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7340,7 +7402,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>voc_soc_r</c:v>
+                  <c:v>voc_soc_25_old</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7664,11 +7726,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
+              <c:f>Sheet1!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>voc_ekf_r</c:v>
+                  <c:v>voc_ekf_25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7837,7 +7899,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$48</c:f>
+              <c:f>Sheet1!$P$2:$P$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -7992,7 +8054,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$1</c:f>
+              <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8165,7 +8227,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$48</c:f>
+              <c:f>Sheet1!$O$2:$O$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -8323,11 +8385,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="559871640"/>
-        <c:axId val="559879872"/>
+        <c:axId val="621884672"/>
+        <c:axId val="621886632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="559871640"/>
+        <c:axId val="621884672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.70000000000000007"/>
@@ -8385,12 +8447,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559879872"/>
+        <c:crossAx val="621886632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559879872"/>
+        <c:axId val="621886632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -8448,7 +8510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559871640"/>
+        <c:crossAx val="621884672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9245,7 +9307,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>voc_soc_r</c:v>
+                  <c:v>voc_soc_25_old</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9569,11 +9631,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
+              <c:f>Sheet1!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>voc_ekf_r</c:v>
+                  <c:v>voc_ekf_25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9742,7 +9804,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$48</c:f>
+              <c:f>Sheet1!$P$2:$P$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -9897,7 +9959,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$1</c:f>
+              <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10070,7 +10132,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$48</c:f>
+              <c:f>Sheet1!$O$2:$O$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -10225,7 +10287,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
+              <c:f>Sheet1!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10398,7 +10460,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$48</c:f>
+              <c:f>Sheet1!$S$2:$S$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -10556,11 +10618,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="559879480"/>
-        <c:axId val="559877128"/>
+        <c:axId val="621853064"/>
+        <c:axId val="620525992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="559879480"/>
+        <c:axId val="621853064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.70000000000000007"/>
@@ -10618,12 +10680,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559877128"/>
+        <c:crossAx val="620525992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559877128"/>
+        <c:axId val="620525992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -10681,7 +10743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559879480"/>
+        <c:crossAx val="621853064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10841,10 +10903,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$49</c:f>
+              <c:f>Sheet1!$D$2:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1643387587</c:v>
                 </c:pt>
@@ -10985,16 +11047,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1643468592</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1643484560</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1643543469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$49</c:f>
+              <c:f>Sheet1!$E$2:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>3.113</c:v>
                 </c:pt>
@@ -11135,6 +11203,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>7.7279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-9.1920000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11169,10 +11243,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$49</c:f>
+              <c:f>Sheet1!$D$2:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1643387587</c:v>
                 </c:pt>
@@ -11313,16 +11387,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1643468592</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1643484560</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1643543469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$49</c:f>
+              <c:f>Sheet1!$F$2:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>13.193</c:v>
                 </c:pt>
@@ -11463,6 +11543,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>10.377000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.137</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11497,10 +11583,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$49</c:f>
+              <c:f>Sheet1!$D$2:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1643387587</c:v>
                 </c:pt>
@@ -11641,16 +11727,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1643468592</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1643484560</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1643543469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$49</c:f>
+              <c:f>Sheet1!$G$2:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2.7149999999999999</c:v>
                 </c:pt>
@@ -11791,6 +11883,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-2.3420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11805,11 +11903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="564567360"/>
-        <c:axId val="564573240"/>
+        <c:axId val="620529128"/>
+        <c:axId val="620529520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564567360"/>
+        <c:axId val="620529128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11866,12 +11964,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564573240"/>
+        <c:crossAx val="620529520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564573240"/>
+        <c:axId val="620529520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11928,7 +12026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564567360"/>
+        <c:crossAx val="620529128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12088,10 +12186,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:f>Sheet1!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12232,16 +12330,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$48</c:f>
+              <c:f>Sheet1!$E$2:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>3.113</c:v>
                 </c:pt>
@@ -12382,6 +12486,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>7.7279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-9.1920000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12416,10 +12526,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:f>Sheet1!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12560,16 +12670,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$48</c:f>
+              <c:f>Sheet1!$F$2:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>13.193</c:v>
                 </c:pt>
@@ -12710,6 +12826,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>10.377000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.137</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12744,10 +12866,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:f>Sheet1!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12888,16 +13010,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$48</c:f>
+              <c:f>Sheet1!$G$2:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2.7149999999999999</c:v>
                 </c:pt>
@@ -13038,6 +13166,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-2.3420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13052,11 +13186,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="564578336"/>
-        <c:axId val="564583824"/>
+        <c:axId val="620883592"/>
+        <c:axId val="620884768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564578336"/>
+        <c:axId val="620883592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13113,12 +13247,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564583824"/>
+        <c:crossAx val="620884768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564583824"/>
+        <c:axId val="620884768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13175,7 +13309,2819 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564578336"/>
+        <c:crossAx val="620883592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>New Sched with Assumed DVDT=0.0125 V/deg</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5553149606299214E-2"/>
+          <c:y val="3.3240740740740737E-2"/>
+          <c:w val="0.87755796150481191"/>
+          <c:h val="0.75345654709827947"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>voc_ekf_25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0.99970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9718</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9607</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90280000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88370000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.85880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85029999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.84379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.83989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83830000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83809999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.84130000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.84609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.85119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.84550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.84550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.83889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.83089999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.82069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.80959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.7954</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76480000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>13.561570499999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.561687000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5301455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.535559999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.501125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.4609775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.469337000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.487018000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.461537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.456098000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.4569375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.448980500000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.444528</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.452912999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.4532545</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.460950500000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.416764499999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.383385000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.367951999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.355927999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.337184500000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.3117755</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.27397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.219865</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.171739499999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.1492705</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.141102500000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.125945</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.118549999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.108143</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.1022295</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.1029605</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.105840499999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.1018595</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.119200500000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.128283</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.0527955</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.064394500000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.081198000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.076542</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.072969499999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.032957000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.914838</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.688085000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.363462500000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.861324499999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.779347999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>voc_ekf_10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0.99970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9718</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9607</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90280000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88370000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.85880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85029999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.84379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.83989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83830000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83809999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.84130000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.84609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.85119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.84550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.84550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.83889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.83089999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.82069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.80959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.7954</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76480000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>13.239070499999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.239187000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.2076455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.213059999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.178625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.1384775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.146837000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.164518000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.139037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.133598000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.134437500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.126480500000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.122028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.130412999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.1307545</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.138450500000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.0942645</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.060885000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.045451999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.033427999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.014684500000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.9892755</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.95147</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.897365000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.849239499999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.8267705</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.818602500000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.803445</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.796049999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.785643</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.7797295</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.7804605</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.7833405</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.7793595</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.796700500000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.805783</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.7302955</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.741894500000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.758698000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.754042</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.750469499999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.710457000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.592338</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.365585000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.040962500000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.538824499999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.456847999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>voc_ekf_40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0.99970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9718</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9607</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90280000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88370000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.85880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85029999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.84379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.83989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83830000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83809999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.84130000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.84609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.85119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.84550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.84550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.83889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.83089999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.82069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.80959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.7954</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76480000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>13.884070499999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.884187000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.8526455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.858059999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.823625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.7834775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.791837000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.809518000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.784037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.778598000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.7794375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.771480500000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.767028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.775412999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.7757545</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.783450500000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.739264499999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.705885</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.690451999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.678427999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.659684500000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.634275499999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.59647</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.542365</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.494239499999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.4717705</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.4636025</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.448445</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.441049999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.430643</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.4247295</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.4254605</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.428340499999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.4243595</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.441700500000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.450782999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.3752955</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.3868945</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.403698</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.399042</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.395469499999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.355457000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.237337999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.010585000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.6859625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.183824499999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.101847999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>voc_ekf_0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0.99970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9718</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9607</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90280000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88370000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.85880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85029999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.84379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.83989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83830000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83809999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.84130000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.84609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.85119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.84550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.84550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.83889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.83089999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.82069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.80959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.7954</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76480000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>13.024070499999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.024187000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.9926455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.998059999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.963625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.923477500000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.931837000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.949518000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.924037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.918598000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.919437500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.911480500000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.907028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.915412999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.9157545</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.923450500000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.8792645</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.845885000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.830451999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.818427999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.799684500000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.7742755</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.736470000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.682365000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.6342395</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.6117705</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.603602500000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.588445</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.581049999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.570643</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.5647295</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.5654605</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.5683405</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5643595</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.581700500000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.590783</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.515295500000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.526894500000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.543698000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.539042</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.5354695</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.495457000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.377338</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.150585000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.825962500000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.323824499999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.241847999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>voc_soc_25_old</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0.99970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9718</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9607</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90280000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88370000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.85880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85029999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.84379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.83989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83830000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83809999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.84130000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.84609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.85119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.84550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.84550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.83889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.83089999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.82069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.80959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.7954</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76480000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>14.035570499999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.861687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.7571455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.756559999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.748125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.734977500000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.728337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.729018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.728537000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.728098000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.725937500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.724980500000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.727528</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.732913</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.7382545</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.745950500000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.750764499999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.741384999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.731952</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.721928</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.709184500000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.693775499999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.67497</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.650865</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.6407395</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.634270500000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.6301025</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.627944999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.624549999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.623143000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.6222295</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.6229605</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.6238405</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.625859499999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.6282005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.630283</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.6297955</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.627394499999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.625198000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.625541999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.621969500000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.618957</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.615838</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.611085000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.603462500000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.5933245</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.582348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="686562064"/>
+        <c:axId val="686568336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="686562064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="686568336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="686568336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="686562064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>t_voc</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>voc_0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>voc_10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>voc_20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$2:$AA$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9.379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.421999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.436</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>voc_40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$2:$AB$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.901999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.916</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.97</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="573947536"/>
+        <c:axId val="573943224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="573947536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573943224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="573943224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573947536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13497,6 +16443,86 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17148,20 +20174,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>868680</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17182,16 +21240,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17242,16 +21300,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17272,16 +21330,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17302,16 +21360,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17332,16 +21390,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17355,6 +21413,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53346</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22834,10 +26952,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22855,10 +26974,14 @@
     <col min="11" max="11" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="14" max="15" width="8.88671875" style="2"/>
+    <col min="16" max="19" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11" style="2" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>376</v>
       </c>
@@ -22899,25 +27022,52 @@
         <v>375</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="P1" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="S1" s="2">
+      <c r="W1" s="2">
         <v>2.1499999999999998E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="X1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -22952,23 +27102,62 @@
         <v>13.090999999999999</v>
       </c>
       <c r="N2" s="2">
-        <f t="shared" ref="N2:N38" si="0">J2-($E2-25)*$S$1</f>
+        <f>J2-($E2-25)*$W$1</f>
         <v>14.035570499999999</v>
       </c>
       <c r="O2" s="2">
-        <f t="shared" ref="O2:O38" si="1">K2-($E2-25)*$S$1</f>
+        <f>N2-25*$W$1</f>
+        <v>13.498070499999999</v>
+      </c>
+      <c r="P2" s="2">
+        <f>K2-($E2-25)*$W$1</f>
         <v>13.561570499999998</v>
       </c>
-      <c r="P2" s="2">
-        <f>N2-25*$S$1</f>
-        <v>13.498070499999999</v>
-      </c>
       <c r="Q2" s="2">
-        <f>O2-25*$S$1</f>
+        <f>$P2-15*$W$1</f>
+        <v>13.239070499999999</v>
+      </c>
+      <c r="R2" s="2">
+        <f>$P2+15*$W$1</f>
+        <v>13.884070499999998</v>
+      </c>
+      <c r="S2" s="2">
+        <f>$P2-25*$W$1</f>
         <v>13.024070499999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="2">
+        <f>F2-K2</f>
+        <v>0.10200000000000031</v>
+      </c>
+      <c r="U2" s="2">
+        <f>T2/G2</f>
+        <v>3.7569060773480781E-2</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="W2" s="2">
+        <f>W1/4</f>
+        <v>5.3749999999999996E-3</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="AA2" s="3">
+        <f t="shared" ref="AA2:AA14" si="0">AB2-20*0.006*4</f>
+        <v>9.379999999999999</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f>A2+0.5</f>
         <v>0.5</v>
@@ -23011,25 +27200,57 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="N3" s="2">
+        <f>J3-($E3-25)*$W$1</f>
+        <v>13.861687</v>
+      </c>
+      <c r="O3" s="2">
+        <f>N3-25*$W$1</f>
+        <v>13.324187</v>
+      </c>
+      <c r="P3" s="2">
+        <f>K3-($E3-25)*$W$1</f>
+        <v>13.561687000000001</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" ref="Q3:Q50" si="1">$P3-15*$W$1</f>
+        <v>13.239187000000001</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R50" si="2">$P3+15*$W$1</f>
+        <v>13.884187000000001</v>
+      </c>
+      <c r="S3" s="2">
+        <f>$P3-25*$W$1</f>
+        <v>13.024187000000001</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" ref="T3:T50" si="3">F3-K3</f>
+        <v>1.4999999999998792E-2</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U50" si="4">T3/G3</f>
+        <v>1.5182186234816592E-2</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="AA3" s="3">
         <f t="shared" si="0"/>
-        <v>13.861687</v>
-      </c>
-      <c r="O3" s="2">
-        <f t="shared" si="1"/>
-        <v>13.561687000000001</v>
-      </c>
-      <c r="P3" s="2">
-        <f t="shared" ref="P3:Q38" si="2">N3-25*$S$1</f>
-        <v>13.324187</v>
-      </c>
-      <c r="Q3" s="2">
-        <f t="shared" si="2"/>
-        <v>13.024187000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>12.18</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A48" si="3">A3+0.5</f>
+        <f t="shared" ref="A4:A48" si="5">A3+0.5</f>
         <v>1</v>
       </c>
       <c r="B4" s="2">
@@ -23063,25 +27284,57 @@
         <v>13.122999999999999</v>
       </c>
       <c r="N4" s="2">
+        <f>J4-($E4-25)*$W$1</f>
+        <v>13.7571455</v>
+      </c>
+      <c r="O4" s="2">
+        <f>N4-25*$W$1</f>
+        <v>13.2196455</v>
+      </c>
+      <c r="P4" s="2">
+        <f>K4-($E4-25)*$W$1</f>
+        <v>13.5301455</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="1"/>
+        <v>13.2076455</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="2"/>
+        <v>13.8526455</v>
+      </c>
+      <c r="S4" s="2">
+        <f>$P4-25*$W$1</f>
+        <v>12.9926455</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1000000000000583E-2</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1163125675189262E-2</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="AA4" s="3">
         <f t="shared" si="0"/>
-        <v>13.7571455</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" si="1"/>
-        <v>13.5301455</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" si="2"/>
-        <v>13.2196455</v>
-      </c>
-      <c r="Q4" s="2">
-        <f t="shared" si="2"/>
-        <v>12.9926455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>12.83</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="B5" s="2">
@@ -23122,25 +27375,57 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="N5" s="2">
+        <f>J5-($E5-25)*$W$1</f>
+        <v>13.756559999999999</v>
+      </c>
+      <c r="O5" s="2">
+        <f>N5-25*$W$1</f>
+        <v>13.219059999999999</v>
+      </c>
+      <c r="P5" s="2">
+        <f>K5-($E5-25)*$W$1</f>
+        <v>13.535559999999998</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="1"/>
+        <v>13.213059999999999</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="2"/>
+        <v>13.858059999999998</v>
+      </c>
+      <c r="S5" s="2">
+        <f>$P5-25*$W$1</f>
+        <v>12.998059999999999</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="3"/>
+        <v>3.2000000000000028E-2</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1523226503420967E-2</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="AA5" s="3">
         <f t="shared" si="0"/>
-        <v>13.756559999999999</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" si="1"/>
-        <v>13.535559999999998</v>
-      </c>
-      <c r="P5" s="2">
-        <f t="shared" si="2"/>
-        <v>13.219059999999999</v>
-      </c>
-      <c r="Q5" s="2">
-        <f t="shared" si="2"/>
-        <v>12.998059999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>12.99</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="B6" s="2">
@@ -23174,25 +27459,57 @@
         <v>13.141</v>
       </c>
       <c r="N6" s="2">
+        <f>J6-($E6-25)*$W$1</f>
+        <v>13.748125</v>
+      </c>
+      <c r="O6" s="2">
+        <f>N6-25*$W$1</f>
+        <v>13.210625</v>
+      </c>
+      <c r="P6" s="2">
+        <f>K6-($E6-25)*$W$1</f>
+        <v>13.501125</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="1"/>
+        <v>13.178625</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="2"/>
+        <v>13.823625</v>
+      </c>
+      <c r="S6" s="2">
+        <f>$P6-25*$W$1</f>
+        <v>12.963625</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.2999999999999901E-2</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3197969543147108E-2</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="AA6" s="3">
         <f t="shared" si="0"/>
-        <v>13.748125</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="1"/>
-        <v>13.501125</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="2"/>
-        <v>13.210625</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" si="2"/>
-        <v>12.963625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13.18</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
       <c r="B7" s="2">
@@ -23233,25 +27550,57 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="N7" s="2">
+        <f>J7-($E7-25)*$W$1</f>
+        <v>13.734977500000001</v>
+      </c>
+      <c r="O7" s="2">
+        <f>N7-25*$W$1</f>
+        <v>13.197477500000002</v>
+      </c>
+      <c r="P7" s="2">
+        <f>K7-($E7-25)*$W$1</f>
+        <v>13.4609775</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="1"/>
+        <v>13.1384775</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="2"/>
+        <v>13.7834775</v>
+      </c>
+      <c r="S7" s="2">
+        <f>$P7-25*$W$1</f>
+        <v>12.923477500000001</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.0999999999999233E-2</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3749999999999041E-2</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="AA7" s="3">
         <f t="shared" si="0"/>
-        <v>13.734977500000001</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="1"/>
-        <v>13.4609775</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" si="2"/>
-        <v>13.197477500000002</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="2"/>
-        <v>12.923477500000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13.209999999999999</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="B8" s="2">
@@ -23285,25 +27634,57 @@
         <v>13.14</v>
       </c>
       <c r="N8" s="2">
+        <f>J8-($E8-25)*$W$1</f>
+        <v>13.728337</v>
+      </c>
+      <c r="O8" s="2">
+        <f>N8-25*$W$1</f>
+        <v>13.190837</v>
+      </c>
+      <c r="P8" s="2">
+        <f>K8-($E8-25)*$W$1</f>
+        <v>13.469337000000001</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="1"/>
+        <v>13.146837000000001</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="2"/>
+        <v>13.791837000000001</v>
+      </c>
+      <c r="S8" s="2">
+        <f>$P8-25*$W$1</f>
+        <v>12.931837000000002</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7999999999998906E-2</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1214953271027357E-2</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="AA8" s="3">
         <f t="shared" si="0"/>
-        <v>13.728337</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="1"/>
-        <v>13.469337000000001</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="2"/>
-        <v>13.190837</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="2"/>
-        <v>12.931837000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13.28</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="B9" s="2">
@@ -23344,25 +27725,57 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="N9" s="2">
+        <f>J9-($E9-25)*$W$1</f>
+        <v>13.729018</v>
+      </c>
+      <c r="O9" s="2">
+        <f>N9-25*$W$1</f>
+        <v>13.191518</v>
+      </c>
+      <c r="P9" s="2">
+        <f>K9-($E9-25)*$W$1</f>
+        <v>13.487018000000001</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="1"/>
+        <v>13.164518000000001</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="2"/>
+        <v>13.809518000000001</v>
+      </c>
+      <c r="S9" s="2">
+        <f>$P9-25*$W$1</f>
+        <v>12.949518000000001</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0999999999999019E-2</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3084112149532099E-2</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="AA9" s="3">
         <f t="shared" si="0"/>
-        <v>13.729018</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="1"/>
-        <v>13.487018000000001</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="2"/>
-        <v>13.191518</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" si="2"/>
-        <v>12.949518000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13.379999999999999</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B10" s="2">
@@ -23396,25 +27809,58 @@
         <v>13.157999999999999</v>
       </c>
       <c r="N10" s="2">
+        <f>J10-($E10-25)*$W$1</f>
+        <v>13.728537000000001</v>
+      </c>
+      <c r="O10" s="2">
+        <f>N10-25*$W$1</f>
+        <v>13.191037000000001</v>
+      </c>
+      <c r="P10" s="2">
+        <f>K10-($E10-25)*$W$1</f>
+        <v>13.461537</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="1"/>
+        <v>13.139037</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="2"/>
+        <v>13.784037</v>
+      </c>
+      <c r="S10" s="2">
+        <f>$P10-25*$W$1</f>
+        <v>12.924037</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="3"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2453300124532735E-2</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>10.24</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>10.45</v>
+      </c>
+      <c r="AA10" s="3">
         <f t="shared" si="0"/>
-        <v>13.728537000000001</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="1"/>
-        <v>13.461537</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="2"/>
-        <v>13.191037000000001</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="2"/>
-        <v>12.924037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13.421999999999999</v>
+      </c>
+      <c r="AB10" s="3">
+        <f>AB$9+(X10-X$9)/(X$12-X$9)*(AB$12-AB$9)</f>
+        <v>13.901999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="B11" s="2">
@@ -23455,25 +27901,58 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="N11" s="2">
+        <f>J11-($E11-25)*$W$1</f>
+        <v>13.728098000000001</v>
+      </c>
+      <c r="O11" s="2">
+        <f>N11-25*$W$1</f>
+        <v>13.190598000000001</v>
+      </c>
+      <c r="P11" s="2">
+        <f>K11-($E11-25)*$W$1</f>
+        <v>13.456098000000001</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="1"/>
+        <v>13.133598000000001</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="2"/>
+        <v>13.778598000000001</v>
+      </c>
+      <c r="S11" s="2">
+        <f>$P11-25*$W$1</f>
+        <v>12.918598000000001</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="3"/>
+        <v>7.9999999999991189E-3</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4362657091560356E-2</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>11.32</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>11.54</v>
+      </c>
+      <c r="AA11" s="3">
         <f t="shared" si="0"/>
-        <v>13.728098000000001</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="1"/>
-        <v>13.456098000000001</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="2"/>
-        <v>13.190598000000001</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="2"/>
-        <v>12.918598000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13.436</v>
+      </c>
+      <c r="AB11" s="3">
+        <f>AB$9+(X11-X$9)/(X$12-X$9)*(AB$12-AB$9)</f>
+        <v>13.916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B12" s="2">
@@ -23507,25 +27986,57 @@
         <v>13.164</v>
       </c>
       <c r="N12" s="2">
+        <f>J12-($E12-25)*$W$1</f>
+        <v>13.725937500000001</v>
+      </c>
+      <c r="O12" s="2">
+        <f>N12-25*$W$1</f>
+        <v>13.188437500000001</v>
+      </c>
+      <c r="P12" s="2">
+        <f>K12-($E12-25)*$W$1</f>
+        <v>13.4569375</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="1"/>
+        <v>13.134437500000001</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="2"/>
+        <v>13.7794375</v>
+      </c>
+      <c r="S12" s="2">
+        <f>$P12-25*$W$1</f>
+        <v>12.919437500000001</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7241379310335272E-2</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>11.83</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>12.04</v>
+      </c>
+      <c r="AA12" s="3">
         <f t="shared" si="0"/>
-        <v>13.725937500000001</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" si="1"/>
-        <v>13.4569375</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="2"/>
-        <v>13.188437500000001</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" si="2"/>
-        <v>12.919437500000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13.45</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="B13" s="2">
@@ -23566,25 +28077,57 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="N13" s="2">
+        <f>J13-($E13-25)*$W$1</f>
+        <v>13.724980500000001</v>
+      </c>
+      <c r="O13" s="2">
+        <f>N13-25*$W$1</f>
+        <v>13.187480500000001</v>
+      </c>
+      <c r="P13" s="2">
+        <f>K13-($E13-25)*$W$1</f>
+        <v>13.448980500000001</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="1"/>
+        <v>13.126480500000001</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="2"/>
+        <v>13.771480500000001</v>
+      </c>
+      <c r="S13" s="2">
+        <f>$P13-25*$W$1</f>
+        <v>12.911480500000001</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666672235E-2</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>12.63</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>12.85</v>
+      </c>
+      <c r="AA13" s="3">
         <f t="shared" si="0"/>
-        <v>13.724980500000001</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="1"/>
-        <v>13.448980500000001</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="2"/>
-        <v>13.187480500000001</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" si="2"/>
-        <v>12.911480500000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13.49</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B14" s="2">
@@ -23618,25 +28161,57 @@
         <v>13.148</v>
       </c>
       <c r="N14" s="2">
+        <f>J14-($E14-25)*$W$1</f>
+        <v>13.727528</v>
+      </c>
+      <c r="O14" s="2">
+        <f>N14-25*$W$1</f>
+        <v>13.190028</v>
+      </c>
+      <c r="P14" s="2">
+        <f>K14-($E14-25)*$W$1</f>
+        <v>13.444528</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="1"/>
+        <v>13.122028</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="2"/>
+        <v>13.767028</v>
+      </c>
+      <c r="S14" s="2">
+        <f>$P14-25*$W$1</f>
+        <v>12.907028</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.9999999999988916E-3</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666657431E-2</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>13.02</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="AA14" s="3">
         <f t="shared" si="0"/>
-        <v>13.727528</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="1"/>
-        <v>13.444528</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="2"/>
-        <v>13.190028</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" si="2"/>
-        <v>12.907028</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>13.57</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="B15" s="2">
@@ -23677,25 +28252,57 @@
         <v>-1.6666666666666667</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="0"/>
+        <f>J15-($E15-25)*$W$1</f>
         <v>13.732913</v>
       </c>
       <c r="O15" s="2">
+        <f>N15-25*$W$1</f>
+        <v>13.195413</v>
+      </c>
+      <c r="P15" s="2">
+        <f>K15-($E15-25)*$W$1</f>
+        <v>13.452912999999999</v>
+      </c>
+      <c r="Q15" s="2">
         <f t="shared" si="1"/>
-        <v>13.452912999999999</v>
-      </c>
-      <c r="P15" s="2">
+        <v>13.130412999999999</v>
+      </c>
+      <c r="R15" s="2">
         <f t="shared" si="2"/>
-        <v>13.195413</v>
-      </c>
-      <c r="Q15" s="2">
-        <f t="shared" si="2"/>
+        <v>13.775412999999999</v>
+      </c>
+      <c r="S15" s="2">
+        <f>$P15-25*$W$1</f>
         <v>12.915412999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.9999999999988916E-3</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666657431E-2</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>13.32</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="AA15" s="3">
+        <f>AB15-20*0.006*4</f>
+        <v>13.92</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B16" s="2">
@@ -23729,25 +28336,41 @@
         <v>13.138</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="0"/>
+        <f>J16-($E16-25)*$W$1</f>
         <v>13.7382545</v>
       </c>
       <c r="O16" s="2">
+        <f>N16-25*$W$1</f>
+        <v>13.2007545</v>
+      </c>
+      <c r="P16" s="2">
+        <f>K16-($E16-25)*$W$1</f>
+        <v>13.4532545</v>
+      </c>
+      <c r="Q16" s="2">
         <f t="shared" si="1"/>
-        <v>13.4532545</v>
-      </c>
-      <c r="P16" s="2">
+        <v>13.1307545</v>
+      </c>
+      <c r="R16" s="2">
         <f t="shared" si="2"/>
-        <v>13.2007545</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" si="2"/>
+        <v>13.7757545</v>
+      </c>
+      <c r="S16" s="2">
+        <f>$P16-25*$W$1</f>
         <v>12.9157545</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T16" s="2">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="4"/>
+        <v>8.3333333333287154E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="B17" s="2">
@@ -23788,25 +28411,41 @@
         <v>-1.1111111111111112</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="0"/>
+        <f>J17-($E17-25)*$W$1</f>
         <v>13.745950500000001</v>
       </c>
       <c r="O17" s="2">
+        <f>N17-25*$W$1</f>
+        <v>13.208450500000001</v>
+      </c>
+      <c r="P17" s="2">
+        <f>K17-($E17-25)*$W$1</f>
+        <v>13.460950500000001</v>
+      </c>
+      <c r="Q17" s="2">
         <f t="shared" si="1"/>
-        <v>13.460950500000001</v>
-      </c>
-      <c r="P17" s="2">
+        <v>13.138450500000001</v>
+      </c>
+      <c r="R17" s="2">
         <f t="shared" si="2"/>
-        <v>13.208450500000001</v>
-      </c>
-      <c r="Q17" s="2">
-        <f t="shared" si="2"/>
+        <v>13.783450500000001</v>
+      </c>
+      <c r="S17" s="2">
+        <f>$P17-25*$W$1</f>
         <v>12.923450500000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T17" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000012221E-3</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="4"/>
+        <v>8.3333333333435178E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B18" s="2">
@@ -23840,25 +28479,41 @@
         <v>13.077</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="0"/>
+        <f>J18-($E18-25)*$W$1</f>
         <v>13.750764499999999</v>
       </c>
       <c r="O18" s="2">
+        <f>N18-25*$W$1</f>
+        <v>13.213264499999999</v>
+      </c>
+      <c r="P18" s="2">
+        <f>K18-($E18-25)*$W$1</f>
+        <v>13.416764499999999</v>
+      </c>
+      <c r="Q18" s="2">
         <f t="shared" si="1"/>
-        <v>13.416764499999999</v>
-      </c>
-      <c r="P18" s="2">
+        <v>13.0942645</v>
+      </c>
+      <c r="R18" s="2">
         <f t="shared" si="2"/>
-        <v>13.213264499999999</v>
-      </c>
-      <c r="Q18" s="2">
-        <f t="shared" si="2"/>
+        <v>13.739264499999999</v>
+      </c>
+      <c r="S18" s="2">
+        <f>$P18-25*$W$1</f>
         <v>12.8792645</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T18" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.8999999999999702E-2</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2408526885141491E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
       <c r="B19" s="2">
@@ -23899,25 +28554,41 @@
         <v>-2.2222222222222223</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="0"/>
+        <f>J19-($E19-25)*$W$1</f>
         <v>13.741384999999999</v>
       </c>
       <c r="O19" s="2">
+        <f>N19-25*$W$1</f>
+        <v>13.203885</v>
+      </c>
+      <c r="P19" s="2">
+        <f>K19-($E19-25)*$W$1</f>
+        <v>13.383385000000001</v>
+      </c>
+      <c r="Q19" s="2">
         <f t="shared" si="1"/>
-        <v>13.383385000000001</v>
-      </c>
-      <c r="P19" s="2">
+        <v>13.060885000000001</v>
+      </c>
+      <c r="R19" s="2">
         <f t="shared" si="2"/>
-        <v>13.203885</v>
-      </c>
-      <c r="Q19" s="2">
-        <f t="shared" si="2"/>
+        <v>13.705885</v>
+      </c>
+      <c r="S19" s="2">
+        <f>$P19-25*$W$1</f>
         <v>12.845885000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T19" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.6000000000001364E-2</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2426648256817869E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B20" s="2">
@@ -23951,25 +28622,41 @@
         <v>13.004</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="0"/>
+        <f>J20-($E20-25)*$W$1</f>
         <v>13.731952</v>
       </c>
       <c r="O20" s="2">
+        <f>N20-25*$W$1</f>
+        <v>13.194452</v>
+      </c>
+      <c r="P20" s="2">
+        <f>K20-($E20-25)*$W$1</f>
+        <v>13.367951999999999</v>
+      </c>
+      <c r="Q20" s="2">
         <f t="shared" si="1"/>
-        <v>13.367951999999999</v>
-      </c>
-      <c r="P20" s="2">
+        <v>13.045451999999999</v>
+      </c>
+      <c r="R20" s="2">
         <f t="shared" si="2"/>
-        <v>13.194452</v>
-      </c>
-      <c r="Q20" s="2">
-        <f t="shared" si="2"/>
+        <v>13.690451999999999</v>
+      </c>
+      <c r="S20" s="2">
+        <f>$P20-25*$W$1</f>
         <v>12.830451999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T20" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.5000000000000142E-2</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2345679012345729E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
       <c r="B21" s="2">
@@ -24010,25 +28697,41 @@
         <v>-1.6666666666666667</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="0"/>
+        <f>J21-($E21-25)*$W$1</f>
         <v>13.721928</v>
       </c>
       <c r="O21" s="2">
+        <f>N21-25*$W$1</f>
+        <v>13.184428</v>
+      </c>
+      <c r="P21" s="2">
+        <f>K21-($E21-25)*$W$1</f>
+        <v>13.355927999999999</v>
+      </c>
+      <c r="Q21" s="2">
         <f t="shared" si="1"/>
-        <v>13.355927999999999</v>
-      </c>
-      <c r="P21" s="2">
+        <v>13.033427999999999</v>
+      </c>
+      <c r="R21" s="2">
         <f t="shared" si="2"/>
-        <v>13.184428</v>
-      </c>
-      <c r="Q21" s="2">
-        <f t="shared" si="2"/>
+        <v>13.678427999999998</v>
+      </c>
+      <c r="S21" s="2">
+        <f>$P21-25*$W$1</f>
         <v>12.818427999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T21" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.5000000000000142E-2</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2345679012345729E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B22" s="2">
@@ -24062,25 +28765,41 @@
         <v>12.957000000000001</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="0"/>
+        <f>J22-($E22-25)*$W$1</f>
         <v>13.709184500000001</v>
       </c>
       <c r="O22" s="2">
+        <f>N22-25*$W$1</f>
+        <v>13.171684500000001</v>
+      </c>
+      <c r="P22" s="2">
+        <f>K22-($E22-25)*$W$1</f>
+        <v>13.337184500000001</v>
+      </c>
+      <c r="Q22" s="2">
         <f t="shared" si="1"/>
-        <v>13.337184500000001</v>
-      </c>
-      <c r="P22" s="2">
+        <v>13.014684500000001</v>
+      </c>
+      <c r="R22" s="2">
         <f t="shared" si="2"/>
-        <v>13.171684500000001</v>
-      </c>
-      <c r="Q22" s="2">
-        <f t="shared" si="2"/>
+        <v>13.659684500000001</v>
+      </c>
+      <c r="S22" s="2">
+        <f>$P22-25*$W$1</f>
         <v>12.799684500000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T22" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.5000000000000142E-2</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2345679012345729E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.5</v>
       </c>
       <c r="B23" s="2">
@@ -24121,25 +28840,41 @@
         <v>-1.6666666666666667</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="0"/>
+        <f>J23-($E23-25)*$W$1</f>
         <v>13.693775499999999</v>
       </c>
       <c r="O23" s="2">
+        <f>N23-25*$W$1</f>
+        <v>13.1562755</v>
+      </c>
+      <c r="P23" s="2">
+        <f>K23-($E23-25)*$W$1</f>
+        <v>13.3117755</v>
+      </c>
+      <c r="Q23" s="2">
         <f t="shared" si="1"/>
-        <v>13.3117755</v>
-      </c>
-      <c r="P23" s="2">
+        <v>12.9892755</v>
+      </c>
+      <c r="R23" s="2">
         <f t="shared" si="2"/>
-        <v>13.1562755</v>
-      </c>
-      <c r="Q23" s="2">
-        <f t="shared" si="2"/>
+        <v>13.634275499999999</v>
+      </c>
+      <c r="S23" s="2">
+        <f>$P23-25*$W$1</f>
         <v>12.7742755</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T23" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.399999999999892E-2</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2261089073205524E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B24" s="2">
@@ -24173,25 +28908,41 @@
         <v>12.896000000000001</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="0"/>
+        <f>J24-($E24-25)*$W$1</f>
         <v>13.67497</v>
       </c>
       <c r="O24" s="2">
+        <f>N24-25*$W$1</f>
+        <v>13.13747</v>
+      </c>
+      <c r="P24" s="2">
+        <f>K24-($E24-25)*$W$1</f>
+        <v>13.27397</v>
+      </c>
+      <c r="Q24" s="2">
         <f t="shared" si="1"/>
-        <v>13.27397</v>
-      </c>
-      <c r="P24" s="2">
+        <v>12.95147</v>
+      </c>
+      <c r="R24" s="2">
         <f t="shared" si="2"/>
-        <v>13.13747</v>
-      </c>
-      <c r="Q24" s="2">
-        <f t="shared" si="2"/>
+        <v>13.59647</v>
+      </c>
+      <c r="S24" s="2">
+        <f>$P24-25*$W$1</f>
         <v>12.736470000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T24" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.4000000000000696E-2</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2261089073206164E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11.5</v>
       </c>
       <c r="B25" s="2">
@@ -24232,25 +28983,41 @@
         <v>-1.1111111111111112</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="0"/>
+        <f>J25-($E25-25)*$W$1</f>
         <v>13.650865</v>
       </c>
       <c r="O25" s="2">
+        <f>N25-25*$W$1</f>
+        <v>13.113365</v>
+      </c>
+      <c r="P25" s="2">
+        <f>K25-($E25-25)*$W$1</f>
+        <v>13.219865</v>
+      </c>
+      <c r="Q25" s="2">
         <f t="shared" si="1"/>
-        <v>13.219865</v>
-      </c>
-      <c r="P25" s="2">
+        <v>12.897365000000001</v>
+      </c>
+      <c r="R25" s="2">
         <f t="shared" si="2"/>
-        <v>13.113365</v>
-      </c>
-      <c r="Q25" s="2">
-        <f t="shared" si="2"/>
+        <v>13.542365</v>
+      </c>
+      <c r="S25" s="2">
+        <f>$P25-25*$W$1</f>
         <v>12.682365000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T25" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.4000000000000696E-2</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2261089073206164E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B26" s="2">
@@ -24284,25 +29051,41 @@
         <v>12.818</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="0"/>
+        <f>J26-($E26-25)*$W$1</f>
         <v>13.6407395</v>
       </c>
       <c r="O26" s="2">
+        <f>N26-25*$W$1</f>
+        <v>13.103239500000001</v>
+      </c>
+      <c r="P26" s="2">
+        <f>K26-($E26-25)*$W$1</f>
+        <v>13.171739499999999</v>
+      </c>
+      <c r="Q26" s="2">
         <f t="shared" si="1"/>
-        <v>13.171739499999999</v>
-      </c>
-      <c r="P26" s="2">
+        <v>12.849239499999999</v>
+      </c>
+      <c r="R26" s="2">
         <f t="shared" si="2"/>
-        <v>13.103239500000001</v>
-      </c>
-      <c r="Q26" s="2">
-        <f t="shared" si="2"/>
+        <v>13.494239499999999</v>
+      </c>
+      <c r="S26" s="2">
+        <f>$P26-25*$W$1</f>
         <v>12.6342395</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T26" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.399999999999892E-2</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2261089073205524E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="B27" s="2">
@@ -24343,25 +29126,41 @@
         <v>-1.6666666666666667</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="0"/>
+        <f>J27-($E27-25)*$W$1</f>
         <v>13.634270500000001</v>
       </c>
       <c r="O27" s="2">
+        <f>N27-25*$W$1</f>
+        <v>13.096770500000002</v>
+      </c>
+      <c r="P27" s="2">
+        <f>K27-($E27-25)*$W$1</f>
+        <v>13.1492705</v>
+      </c>
+      <c r="Q27" s="2">
         <f t="shared" si="1"/>
-        <v>13.1492705</v>
-      </c>
-      <c r="P27" s="2">
+        <v>12.8267705</v>
+      </c>
+      <c r="R27" s="2">
         <f t="shared" si="2"/>
-        <v>13.096770500000002</v>
-      </c>
-      <c r="Q27" s="2">
-        <f t="shared" si="2"/>
+        <v>13.4717705</v>
+      </c>
+      <c r="S27" s="2">
+        <f>$P27-25*$W$1</f>
         <v>12.6117705</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T27" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.9999999999988916E-3</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666657431E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B28" s="2">
@@ -24395,25 +29194,41 @@
         <v>12.82</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="0"/>
+        <f>J28-($E28-25)*$W$1</f>
         <v>13.6301025</v>
       </c>
       <c r="O28" s="2">
+        <f>N28-25*$W$1</f>
+        <v>13.0926025</v>
+      </c>
+      <c r="P28" s="2">
+        <f>K28-($E28-25)*$W$1</f>
+        <v>13.141102500000001</v>
+      </c>
+      <c r="Q28" s="2">
         <f t="shared" si="1"/>
-        <v>13.141102500000001</v>
-      </c>
-      <c r="P28" s="2">
+        <v>12.818602500000001</v>
+      </c>
+      <c r="R28" s="2">
         <f t="shared" si="2"/>
-        <v>13.0926025</v>
-      </c>
-      <c r="Q28" s="2">
-        <f t="shared" si="2"/>
+        <v>13.4636025</v>
+      </c>
+      <c r="S28" s="2">
+        <f>$P28-25*$W$1</f>
         <v>12.603602500000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T28" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666672235E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
       <c r="B29" s="2">
@@ -24454,25 +29269,41 @@
         <v>-2.2222222222222223</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" si="0"/>
+        <f>J29-($E29-25)*$W$1</f>
         <v>13.627944999999999</v>
       </c>
       <c r="O29" s="2">
+        <f>N29-25*$W$1</f>
+        <v>13.090444999999999</v>
+      </c>
+      <c r="P29" s="2">
+        <f>K29-($E29-25)*$W$1</f>
+        <v>13.125945</v>
+      </c>
+      <c r="Q29" s="2">
         <f t="shared" si="1"/>
-        <v>13.125945</v>
-      </c>
-      <c r="P29" s="2">
+        <v>12.803445</v>
+      </c>
+      <c r="R29" s="2">
         <f t="shared" si="2"/>
-        <v>13.090444999999999</v>
-      </c>
-      <c r="Q29" s="2">
-        <f t="shared" si="2"/>
+        <v>13.448445</v>
+      </c>
+      <c r="S29" s="2">
+        <f>$P29-25*$W$1</f>
         <v>12.588445</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T29" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666672235E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B30" s="2">
@@ -24506,25 +29337,41 @@
         <v>12.824</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="0"/>
+        <f>J30-($E30-25)*$W$1</f>
         <v>13.624549999999999</v>
       </c>
       <c r="O30" s="2">
+        <f>N30-25*$W$1</f>
+        <v>13.08705</v>
+      </c>
+      <c r="P30" s="2">
+        <f>K30-($E30-25)*$W$1</f>
+        <v>13.118549999999999</v>
+      </c>
+      <c r="Q30" s="2">
         <f t="shared" si="1"/>
-        <v>13.118549999999999</v>
-      </c>
-      <c r="P30" s="2">
+        <v>12.796049999999999</v>
+      </c>
+      <c r="R30" s="2">
         <f t="shared" si="2"/>
-        <v>13.08705</v>
-      </c>
-      <c r="Q30" s="2">
-        <f t="shared" si="2"/>
+        <v>13.441049999999999</v>
+      </c>
+      <c r="S30" s="2">
+        <f>$P30-25*$W$1</f>
         <v>12.581049999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T30" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666672235E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14.5</v>
       </c>
       <c r="B31" s="2">
@@ -24565,25 +29412,41 @@
         <v>-2.7777777777777777</v>
       </c>
       <c r="N31" s="2">
-        <f t="shared" si="0"/>
+        <f>J31-($E31-25)*$W$1</f>
         <v>13.623143000000001</v>
       </c>
       <c r="O31" s="2">
+        <f>N31-25*$W$1</f>
+        <v>13.085643000000001</v>
+      </c>
+      <c r="P31" s="2">
+        <f>K31-($E31-25)*$W$1</f>
+        <v>13.108143</v>
+      </c>
+      <c r="Q31" s="2">
         <f t="shared" si="1"/>
-        <v>13.108143</v>
-      </c>
-      <c r="P31" s="2">
+        <v>12.785643</v>
+      </c>
+      <c r="R31" s="2">
         <f t="shared" si="2"/>
-        <v>13.085643000000001</v>
-      </c>
-      <c r="Q31" s="2">
-        <f t="shared" si="2"/>
+        <v>13.430643</v>
+      </c>
+      <c r="S31" s="2">
+        <f>$P31-25*$W$1</f>
         <v>12.570643</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T31" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666672235E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B32" s="2">
@@ -24617,25 +29480,41 @@
         <v>12.816000000000001</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="0"/>
+        <f>J32-($E32-25)*$W$1</f>
         <v>13.6222295</v>
       </c>
       <c r="O32" s="2">
+        <f>N32-25*$W$1</f>
+        <v>13.0847295</v>
+      </c>
+      <c r="P32" s="2">
+        <f>K32-($E32-25)*$W$1</f>
+        <v>13.1022295</v>
+      </c>
+      <c r="Q32" s="2">
         <f t="shared" si="1"/>
-        <v>13.1022295</v>
-      </c>
-      <c r="P32" s="2">
+        <v>12.7797295</v>
+      </c>
+      <c r="R32" s="2">
         <f t="shared" si="2"/>
-        <v>13.0847295</v>
-      </c>
-      <c r="Q32" s="2">
-        <f t="shared" si="2"/>
+        <v>13.4247295</v>
+      </c>
+      <c r="S32" s="2">
+        <f>$P32-25*$W$1</f>
         <v>12.5647295</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T32" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666672235E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15.5</v>
       </c>
       <c r="B33" s="2">
@@ -24676,25 +29555,41 @@
         <v>-2.7777777777777777</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" si="0"/>
+        <f>J33-($E33-25)*$W$1</f>
         <v>13.6229605</v>
       </c>
       <c r="O33" s="2">
+        <f>N33-25*$W$1</f>
+        <v>13.0854605</v>
+      </c>
+      <c r="P33" s="2">
+        <f>K33-($E33-25)*$W$1</f>
+        <v>13.1029605</v>
+      </c>
+      <c r="Q33" s="2">
         <f t="shared" si="1"/>
-        <v>13.1029605</v>
-      </c>
-      <c r="P33" s="2">
+        <v>12.7804605</v>
+      </c>
+      <c r="R33" s="2">
         <f t="shared" si="2"/>
-        <v>13.0854605</v>
-      </c>
-      <c r="Q33" s="2">
-        <f t="shared" si="2"/>
+        <v>13.4254605</v>
+      </c>
+      <c r="S33" s="2">
+        <f>$P33-25*$W$1</f>
         <v>12.5654605</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T33" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="U33" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666672235E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B34" s="2">
@@ -24728,25 +29623,41 @@
         <v>12.811999999999999</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="0"/>
+        <f>J34-($E34-25)*$W$1</f>
         <v>13.6238405</v>
       </c>
       <c r="O34" s="2">
+        <f>N34-25*$W$1</f>
+        <v>13.0863405</v>
+      </c>
+      <c r="P34" s="2">
+        <f>K34-($E34-25)*$W$1</f>
+        <v>13.105840499999999</v>
+      </c>
+      <c r="Q34" s="2">
         <f t="shared" si="1"/>
-        <v>13.105840499999999</v>
-      </c>
-      <c r="P34" s="2">
+        <v>12.7833405</v>
+      </c>
+      <c r="R34" s="2">
         <f t="shared" si="2"/>
-        <v>13.0863405</v>
-      </c>
-      <c r="Q34" s="2">
-        <f t="shared" si="2"/>
+        <v>13.428340499999999</v>
+      </c>
+      <c r="S34" s="2">
+        <f>$P34-25*$W$1</f>
         <v>12.5683405</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T34" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.9999999999988916E-3</v>
+      </c>
+      <c r="U34" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666657431E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="B35" s="2">
@@ -24787,25 +29698,41 @@
         <v>-3.8888888888888888</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" si="0"/>
+        <f>J35-($E35-25)*$W$1</f>
         <v>13.625859499999999</v>
       </c>
       <c r="O35" s="2">
+        <f>N35-25*$W$1</f>
+        <v>13.088359499999999</v>
+      </c>
+      <c r="P35" s="2">
+        <f>K35-($E35-25)*$W$1</f>
+        <v>13.1018595</v>
+      </c>
+      <c r="Q35" s="2">
         <f t="shared" si="1"/>
-        <v>13.1018595</v>
-      </c>
-      <c r="P35" s="2">
+        <v>12.7793595</v>
+      </c>
+      <c r="R35" s="2">
         <f t="shared" si="2"/>
-        <v>13.088359499999999</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="2"/>
+        <v>13.4243595</v>
+      </c>
+      <c r="S35" s="2">
+        <f>$P35-25*$W$1</f>
         <v>12.5643595</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T35" s="2">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="U35" s="2">
+        <f t="shared" si="4"/>
+        <v>8.3333333333287154E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B36" s="2">
@@ -24839,25 +29766,41 @@
         <v>12.803000000000001</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="0"/>
+        <f>J36-($E36-25)*$W$1</f>
         <v>13.6282005</v>
       </c>
       <c r="O36" s="2">
+        <f>N36-25*$W$1</f>
+        <v>13.090700500000001</v>
+      </c>
+      <c r="P36" s="2">
+        <f>K36-($E36-25)*$W$1</f>
+        <v>13.119200500000002</v>
+      </c>
+      <c r="Q36" s="2">
         <f t="shared" si="1"/>
-        <v>13.119200500000002</v>
-      </c>
-      <c r="P36" s="2">
+        <v>12.796700500000002</v>
+      </c>
+      <c r="R36" s="2">
         <f t="shared" si="2"/>
-        <v>13.090700500000001</v>
-      </c>
-      <c r="Q36" s="2">
-        <f t="shared" si="2"/>
+        <v>13.441700500000001</v>
+      </c>
+      <c r="S36" s="2">
+        <f>$P36-25*$W$1</f>
         <v>12.581700500000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T36" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000012221E-3</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="4"/>
+        <v>8.3333333333435178E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
       <c r="B37" s="2">
@@ -24898,25 +29841,41 @@
         <v>-4.4444444444444446</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="0"/>
+        <f>J37-($E37-25)*$W$1</f>
         <v>13.630283</v>
       </c>
       <c r="O37" s="2">
+        <f>N37-25*$W$1</f>
+        <v>13.092783000000001</v>
+      </c>
+      <c r="P37" s="2">
+        <f>K37-($E37-25)*$W$1</f>
+        <v>13.128283</v>
+      </c>
+      <c r="Q37" s="2">
         <f t="shared" si="1"/>
-        <v>13.128283</v>
-      </c>
-      <c r="P37" s="2">
+        <v>12.805783</v>
+      </c>
+      <c r="R37" s="2">
         <f t="shared" si="2"/>
-        <v>13.092783000000001</v>
-      </c>
-      <c r="Q37" s="2">
-        <f t="shared" si="2"/>
+        <v>13.450782999999999</v>
+      </c>
+      <c r="S37" s="2">
+        <f>$P37-25*$W$1</f>
         <v>12.590783</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T37" s="2">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="U37" s="2">
+        <f t="shared" si="4"/>
+        <v>8.3333333333287154E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B38" s="2">
@@ -24950,25 +29909,41 @@
         <v>12.708</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="0"/>
+        <f>J38-($E38-25)*$W$1</f>
         <v>13.6297955</v>
       </c>
       <c r="O38" s="2">
+        <f>N38-25*$W$1</f>
+        <v>13.092295500000001</v>
+      </c>
+      <c r="P38" s="2">
+        <f>K38-($E38-25)*$W$1</f>
+        <v>13.0527955</v>
+      </c>
+      <c r="Q38" s="2">
         <f t="shared" si="1"/>
-        <v>13.0527955</v>
-      </c>
-      <c r="P38" s="2">
+        <v>12.7302955</v>
+      </c>
+      <c r="R38" s="2">
         <f t="shared" si="2"/>
-        <v>13.092295500000001</v>
-      </c>
-      <c r="Q38" s="2">
-        <f t="shared" si="2"/>
+        <v>13.3752955</v>
+      </c>
+      <c r="S38" s="2">
+        <f>$P38-25*$W$1</f>
         <v>12.515295500000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T38" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.5999999999999588E-2</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2170385395537385E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18.5</v>
       </c>
       <c r="B39" s="2">
@@ -25009,32 +29984,48 @@
         <v>-5</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" ref="N39" si="4">J39-($E39-25)*$S$1</f>
+        <f>J39-($E39-25)*$W$1</f>
         <v>13.627394499999999</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" ref="O39" si="5">K39-($E39-25)*$S$1</f>
+        <f>N39-25*$W$1</f>
+        <v>13.0898945</v>
+      </c>
+      <c r="P39" s="2">
+        <f>K39-($E39-25)*$W$1</f>
         <v>13.064394500000001</v>
       </c>
-      <c r="P39" s="2">
-        <f t="shared" ref="P39" si="6">N39-25*$S$1</f>
-        <v>13.0898945</v>
-      </c>
       <c r="Q39" s="2">
-        <f t="shared" ref="Q39" si="7">O39-25*$S$1</f>
+        <f t="shared" si="1"/>
+        <v>12.741894500000001</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="2"/>
+        <v>13.3868945</v>
+      </c>
+      <c r="S39" s="2">
+        <f>$P39-25*$W$1</f>
         <v>12.526894500000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T39" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.5000000000000142E-2</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2345679012345729E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B40">
         <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D40">
         <v>1643455959</v>
@@ -25063,32 +30054,48 @@
       <c r="L40" s="2"/>
       <c r="M40" s="1"/>
       <c r="N40" s="2">
-        <f t="shared" ref="N40:N48" si="8">J40-($E40-25)*$S$1</f>
+        <f>J40-($E40-25)*$W$1</f>
         <v>13.625198000000001</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" ref="O40:O48" si="9">K40-($E40-25)*$S$1</f>
+        <f>N40-25*$W$1</f>
+        <v>13.087698000000001</v>
+      </c>
+      <c r="P40" s="2">
+        <f>K40-($E40-25)*$W$1</f>
         <v>13.081198000000001</v>
       </c>
-      <c r="P40" s="2">
-        <f t="shared" ref="P40:P48" si="10">N40-25*$S$1</f>
-        <v>13.087698000000001</v>
-      </c>
       <c r="Q40" s="2">
-        <f t="shared" ref="Q40:Q48" si="11">O40-25*$S$1</f>
+        <f t="shared" si="1"/>
+        <v>12.758698000000001</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="2"/>
+        <v>13.403698</v>
+      </c>
+      <c r="S40" s="2">
+        <f>$P40-25*$W$1</f>
         <v>12.543698000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T40" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.5000000000000142E-2</v>
+      </c>
+      <c r="U40" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2345679012345729E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19.5</v>
       </c>
       <c r="B41">
         <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D41">
         <v>1643455991</v>
@@ -25115,32 +30122,48 @@
         <v>12.707000000000001</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="8"/>
+        <f>J41-($E41-25)*$W$1</f>
         <v>13.625541999999999</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="9"/>
+        <f>N41-25*$W$1</f>
+        <v>13.088042</v>
+      </c>
+      <c r="P41" s="2">
+        <f>K41-($E41-25)*$W$1</f>
         <v>13.076542</v>
       </c>
-      <c r="P41" s="2">
-        <f t="shared" si="10"/>
-        <v>13.088042</v>
-      </c>
       <c r="Q41" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
+        <v>12.754042</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="2"/>
+        <v>13.399042</v>
+      </c>
+      <c r="S41" s="2">
+        <f>$P41-25*$W$1</f>
         <v>12.539042</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T41" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.5000000000000142E-2</v>
+      </c>
+      <c r="U41" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2345679012345729E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B42">
         <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D42">
         <v>1643457791</v>
@@ -25174,32 +30197,48 @@
         <v>-6.1111111111111107</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="8"/>
+        <f>J42-($E42-25)*$W$1</f>
         <v>13.621969500000001</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="9"/>
+        <f>N42-25*$W$1</f>
+        <v>13.084469500000001</v>
+      </c>
+      <c r="P42" s="2">
+        <f>K42-($E42-25)*$W$1</f>
         <v>13.072969499999999</v>
       </c>
-      <c r="P42" s="2">
-        <f t="shared" si="10"/>
-        <v>13.084469500000001</v>
-      </c>
       <c r="Q42" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
+        <v>12.750469499999999</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" si="2"/>
+        <v>13.395469499999999</v>
+      </c>
+      <c r="S42" s="2">
+        <f>$P42-25*$W$1</f>
         <v>12.5354695</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T42" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.399999999999892E-2</v>
+      </c>
+      <c r="U42" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2261089073205524E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.5</v>
       </c>
       <c r="B43">
         <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D43">
         <v>1643459591</v>
@@ -25226,32 +30265,48 @@
         <v>12.646000000000001</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" si="8"/>
+        <f>J43-($E43-25)*$W$1</f>
         <v>13.618957</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="9"/>
+        <f>N43-25*$W$1</f>
+        <v>13.081457</v>
+      </c>
+      <c r="P43" s="2">
+        <f>K43-($E43-25)*$W$1</f>
         <v>13.032957000000001</v>
       </c>
-      <c r="P43" s="2">
-        <f t="shared" si="10"/>
-        <v>13.081457</v>
-      </c>
       <c r="Q43" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
+        <v>12.710457000000002</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" si="2"/>
+        <v>13.355457000000001</v>
+      </c>
+      <c r="S43" s="2">
+        <f>$P43-25*$W$1</f>
         <v>12.495457000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T43" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.4000000000000696E-2</v>
+      </c>
+      <c r="U43" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2261089073206164E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B44">
         <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D44">
         <v>1643461391</v>
@@ -25285,32 +30340,48 @@
         <v>-7.2222222222222223</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="8"/>
+        <f>J44-($E44-25)*$W$1</f>
         <v>13.615838</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="9"/>
+        <f>N44-25*$W$1</f>
+        <v>13.078338</v>
+      </c>
+      <c r="P44" s="2">
+        <f>K44-($E44-25)*$W$1</f>
         <v>12.914838</v>
       </c>
-      <c r="P44" s="2">
-        <f t="shared" si="10"/>
-        <v>13.078338</v>
-      </c>
       <c r="Q44" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
+        <v>12.592338</v>
+      </c>
+      <c r="R44" s="2">
+        <f t="shared" si="2"/>
+        <v>13.237337999999999</v>
+      </c>
+      <c r="S44" s="2">
+        <f>$P44-25*$W$1</f>
         <v>12.377338</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T44" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.2999999999999474E-2</v>
+      </c>
+      <c r="U44" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1900468806346726E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21.5</v>
       </c>
       <c r="B45">
         <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D45">
         <v>1643463192</v>
@@ -25337,32 +30408,48 @@
         <v>12.297000000000001</v>
       </c>
       <c r="N45" s="2">
-        <f t="shared" si="8"/>
+        <f>J45-($E45-25)*$W$1</f>
         <v>13.611085000000001</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" si="9"/>
+        <f>N45-25*$W$1</f>
+        <v>13.073585000000001</v>
+      </c>
+      <c r="P45" s="2">
+        <f>K45-($E45-25)*$W$1</f>
         <v>12.688085000000001</v>
       </c>
-      <c r="P45" s="2">
-        <f t="shared" si="10"/>
-        <v>13.073585000000001</v>
-      </c>
       <c r="Q45" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
+        <v>12.365585000000001</v>
+      </c>
+      <c r="R45" s="2">
+        <f t="shared" si="2"/>
+        <v>13.010585000000001</v>
+      </c>
+      <c r="S45" s="2">
+        <f>$P45-25*$W$1</f>
         <v>12.150585000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T45" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.4000000000000696E-2</v>
+      </c>
+      <c r="U45" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2261089073206164E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B46">
         <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D46">
         <v>1643464992</v>
@@ -25396,32 +30483,48 @@
         <v>-8.3333333333333339</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" si="8"/>
+        <f>J46-($E46-25)*$W$1</f>
         <v>13.603462500000001</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="9"/>
+        <f>N46-25*$W$1</f>
+        <v>13.065962500000001</v>
+      </c>
+      <c r="P46" s="2">
+        <f>K46-($E46-25)*$W$1</f>
         <v>12.363462500000001</v>
       </c>
-      <c r="P46" s="2">
-        <f t="shared" si="10"/>
-        <v>13.065962500000001</v>
-      </c>
       <c r="Q46" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
+        <v>12.040962500000001</v>
+      </c>
+      <c r="R46" s="2">
+        <f t="shared" si="2"/>
+        <v>12.6859625</v>
+      </c>
+      <c r="S46" s="2">
+        <f>$P46-25*$W$1</f>
         <v>11.825962500000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T46" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.2999999999999474E-2</v>
+      </c>
+      <c r="U46" s="2">
+        <f t="shared" si="4"/>
+        <v>1.216814159292016E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22.5</v>
       </c>
       <c r="B47">
         <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D47">
         <v>1643466792</v>
@@ -25448,32 +30551,48 @@
         <v>11.481999999999999</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="8"/>
+        <f>J47-($E47-25)*$W$1</f>
         <v>13.5933245</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" si="9"/>
+        <f>N47-25*$W$1</f>
+        <v>13.0558245</v>
+      </c>
+      <c r="P47" s="2">
+        <f>K47-($E47-25)*$W$1</f>
         <v>11.861324499999998</v>
       </c>
-      <c r="P47" s="2">
-        <f t="shared" si="10"/>
-        <v>13.0558245</v>
-      </c>
       <c r="Q47" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
+        <v>11.538824499999999</v>
+      </c>
+      <c r="R47" s="2">
+        <f t="shared" si="2"/>
+        <v>12.183824499999998</v>
+      </c>
+      <c r="S47" s="2">
+        <f>$P47-25*$W$1</f>
         <v>11.323824499999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T47" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.2999999999999474E-2</v>
+      </c>
+      <c r="U47" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2452830188679048E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B48">
         <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D48">
         <v>1643468592</v>
@@ -25507,20 +30626,193 @@
         <v>-8.8888888888888893</v>
       </c>
       <c r="N48" s="2">
+        <f>J48-($E48-25)*$W$1</f>
+        <v>13.582348</v>
+      </c>
+      <c r="O48" s="2">
+        <f>N48-25*$W$1</f>
+        <v>13.044848</v>
+      </c>
+      <c r="P48" s="2">
+        <f>K48-($E48-25)*$W$1</f>
+        <v>10.779347999999999</v>
+      </c>
+      <c r="Q48" s="2">
+        <f t="shared" si="1"/>
+        <v>10.456847999999999</v>
+      </c>
+      <c r="R48" s="2">
+        <f t="shared" si="2"/>
+        <v>11.101847999999999</v>
+      </c>
+      <c r="S48" s="2">
+        <f>$P48-25*$W$1</f>
+        <v>10.241847999999999</v>
+      </c>
+      <c r="T48" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.0999999999998806E-2</v>
+      </c>
+      <c r="U48" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3236549957300942E-2</v>
+      </c>
+      <c r="V48" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <f>A48+3.5</f>
+        <v>26.5</v>
+      </c>
+      <c r="B49">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>393</v>
+      </c>
+      <c r="D49">
+        <v>1643484560</v>
+      </c>
+      <c r="E49">
+        <v>6.375</v>
+      </c>
+      <c r="F49">
+        <v>1.137</v>
+      </c>
+      <c r="G49">
+        <v>-0.12</v>
+      </c>
+      <c r="H49">
+        <v>0.7792</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>13.193</v>
+      </c>
+      <c r="K49">
+        <v>1.137</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" ref="N49:N50" si="6">J49-($E49-25)*$W$1</f>
+        <v>13.5934375</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" ref="O49:O50" si="7">N49-25*$W$1</f>
+        <v>13.055937500000001</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" ref="P49:P50" si="8">K49-($E49-25)*$W$1</f>
+        <v>1.5374375</v>
+      </c>
+      <c r="Q49" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2149375</v>
+      </c>
+      <c r="R49" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8599375</v>
+      </c>
+      <c r="S49" s="2">
+        <f t="shared" ref="S49:S50" si="9">$P49-25*$W$1</f>
+        <v>0.99993750000000003</v>
+      </c>
+      <c r="T49" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <f>A49+16</f>
+        <v>42.5</v>
+      </c>
+      <c r="B50">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>394</v>
+      </c>
+      <c r="D50">
+        <v>1643543469</v>
+      </c>
+      <c r="E50">
+        <v>-9.1920000000000002</v>
+      </c>
+      <c r="F50">
+        <v>14.352</v>
+      </c>
+      <c r="G50">
+        <v>-0.12</v>
+      </c>
+      <c r="H50">
+        <v>0.96060000000000001</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>13.201000000000001</v>
+      </c>
+      <c r="K50">
+        <v>14.351000000000001</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="6"/>
+        <v>13.936128</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="7"/>
+        <v>13.398628</v>
+      </c>
+      <c r="P50" s="2">
         <f t="shared" si="8"/>
-        <v>13.582348</v>
-      </c>
-      <c r="O48" s="2">
+        <v>15.086128</v>
+      </c>
+      <c r="Q50" s="2">
+        <f t="shared" si="1"/>
+        <v>14.763628000000001</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" si="2"/>
+        <v>15.408628</v>
+      </c>
+      <c r="S50" s="2">
         <f t="shared" si="9"/>
-        <v>10.779347999999999</v>
-      </c>
-      <c r="P48" s="2">
-        <f t="shared" si="10"/>
-        <v>13.044848</v>
-      </c>
-      <c r="Q48" s="2">
-        <f t="shared" si="11"/>
-        <v>10.241847999999999</v>
+        <v>14.548628000000001</v>
+      </c>
+      <c r="T50" s="2">
+        <f>F50-K48</f>
+        <v>3.9440000000000008</v>
+      </c>
+      <c r="U50" s="3">
+        <f t="shared" si="4"/>
+        <v>-32.866666666666674</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="V51" s="4" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -25528,6 +30820,7 @@
     <sortCondition ref="B2:B47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>